--- a/individual_case_outputs/avey/74.xlsx
+++ b/individual_case_outputs/avey/74.xlsx
@@ -597,7 +597,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>cellular changes to the breast tissue</t>
+          <t>breast cancer</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>fibrocystic breast disease</t>
+          <t>fibroadenoma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
